--- a/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/3600-0.2-40-1.xlsx
+++ b/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/3600-0.2-40-1.xlsx
@@ -40,6 +40,9 @@
     <t>requestCost</t>
   </si>
   <si>
+    <t>E</t>
+  </si>
+  <si>
     <t>A,B</t>
   </si>
   <si>
@@ -47,9 +50,6 @@
   </si>
   <si>
     <t>A,C</t>
-  </si>
-  <si>
-    <t>E</t>
   </si>
 </sst>
 </file>
@@ -444,48 +444,48 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="C2">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="F2">
-        <v>1844</v>
+        <v>1473</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>154</v>
+      </c>
+      <c r="C3">
         <v>19</v>
       </c>
-      <c r="B3">
-        <v>112</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
       <c r="D3">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="F3">
-        <v>1668</v>
+        <v>1766</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -493,25 +493,25 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="F4">
-        <v>1823</v>
+        <v>1335</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -519,100 +519,100 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>138</v>
+        <v>207</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E5">
-        <v>138</v>
+        <v>207</v>
       </c>
       <c r="F5">
-        <v>1240</v>
+        <v>1370</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B6">
-        <v>224</v>
+        <v>289</v>
       </c>
       <c r="C6">
+        <v>33</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>289</v>
+      </c>
+      <c r="F6">
+        <v>1306</v>
+      </c>
+      <c r="G6" t="s">
         <v>8</v>
       </c>
-      <c r="D6">
-        <v>39</v>
-      </c>
-      <c r="E6">
-        <v>224</v>
-      </c>
-      <c r="F6">
-        <v>1986</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B7">
-        <v>244</v>
+        <v>337</v>
       </c>
       <c r="C7">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E7">
-        <v>244</v>
+        <v>337</v>
       </c>
       <c r="F7">
-        <v>2070</v>
+        <v>2120</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>260</v>
+        <v>495</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>260</v>
+        <v>495</v>
       </c>
       <c r="F8">
-        <v>1418</v>
+        <v>2041</v>
       </c>
       <c r="G8" t="s">
         <v>8</v>
@@ -623,25 +623,25 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9">
-        <v>396</v>
+        <v>533</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>396</v>
+        <v>533</v>
       </c>
       <c r="F9">
-        <v>1405</v>
+        <v>1693</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -649,77 +649,77 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B10">
-        <v>402</v>
+        <v>562</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E10">
-        <v>402</v>
+        <v>562</v>
       </c>
       <c r="F10">
-        <v>1876</v>
+        <v>2119</v>
       </c>
       <c r="G10" t="s">
         <v>8</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B11">
-        <v>442</v>
+        <v>576</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D11">
         <v>35</v>
       </c>
       <c r="E11">
-        <v>442</v>
+        <v>576</v>
       </c>
       <c r="F11">
-        <v>1759</v>
+        <v>1962</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>562</v>
+        <v>596</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E12">
-        <v>562</v>
+        <v>596</v>
       </c>
       <c r="F12">
-        <v>747</v>
+        <v>2034</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -727,51 +727,51 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B13">
-        <v>610</v>
+        <v>875</v>
       </c>
       <c r="C13">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="E13">
-        <v>610</v>
+        <v>875</v>
       </c>
       <c r="F13">
-        <v>2422</v>
+        <v>1028</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B14">
-        <v>659</v>
+        <v>903</v>
       </c>
       <c r="C14">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>659</v>
+        <v>903</v>
       </c>
       <c r="F14">
-        <v>823</v>
+        <v>2383</v>
       </c>
       <c r="G14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -779,74 +779,74 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>717</v>
+        <v>1255</v>
       </c>
       <c r="C15">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>717</v>
+        <v>1255</v>
       </c>
       <c r="F15">
-        <v>1770</v>
+        <v>1342</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>940</v>
+        <v>1279</v>
       </c>
       <c r="C16">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E16">
-        <v>940</v>
+        <v>1279</v>
       </c>
       <c r="F16">
-        <v>2242</v>
+        <v>2253</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>1125</v>
+        <v>1295</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E17">
-        <v>1125</v>
+        <v>1295</v>
       </c>
       <c r="F17">
-        <v>1326</v>
+        <v>1439</v>
       </c>
       <c r="G17" t="s">
         <v>11</v>
@@ -857,155 +857,155 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B18">
-        <v>1211</v>
+        <v>1309</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>1211</v>
+        <v>1309</v>
       </c>
       <c r="F18">
-        <v>2766</v>
+        <v>1426</v>
       </c>
       <c r="G18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>1409</v>
+      </c>
+      <c r="C19">
         <v>10</v>
       </c>
-      <c r="B19">
-        <v>1285</v>
-      </c>
-      <c r="C19">
-        <v>28</v>
-      </c>
       <c r="D19">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E19">
-        <v>1285</v>
+        <v>1409</v>
       </c>
       <c r="F19">
-        <v>3090</v>
+        <v>2785</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B20">
-        <v>1321</v>
+        <v>1605</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E20">
-        <v>1321</v>
+        <v>1605</v>
       </c>
       <c r="F20">
-        <v>2434</v>
+        <v>2913</v>
       </c>
       <c r="G20" t="s">
         <v>8</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>1343</v>
+        <v>1606</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E21">
-        <v>1343</v>
+        <v>1606</v>
       </c>
       <c r="F21">
-        <v>2892</v>
+        <v>1747</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B22">
-        <v>1549</v>
+        <v>1643</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D22">
+        <v>33</v>
+      </c>
+      <c r="E22">
+        <v>1643</v>
+      </c>
+      <c r="F22">
+        <v>2899</v>
+      </c>
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22">
         <v>3</v>
-      </c>
-      <c r="E22">
-        <v>1549</v>
-      </c>
-      <c r="F22">
-        <v>3361</v>
-      </c>
-      <c r="G22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B23">
-        <v>1621</v>
+        <v>1709</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D23">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E23">
-        <v>1621</v>
+        <v>1709</v>
       </c>
       <c r="F23">
-        <v>2628</v>
+        <v>3497</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -1013,25 +1013,25 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>1764</v>
+        <v>1804</v>
       </c>
       <c r="C24">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E24">
-        <v>1764</v>
+        <v>1804</v>
       </c>
       <c r="F24">
-        <v>3433</v>
+        <v>3607</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -1039,25 +1039,25 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>2234</v>
+        <v>2014</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E25">
-        <v>2234</v>
+        <v>2014</v>
       </c>
       <c r="F25">
-        <v>3160</v>
+        <v>3127</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1065,51 +1065,51 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B26">
-        <v>2253</v>
+        <v>2098</v>
       </c>
       <c r="C26">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D26">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>2253</v>
+        <v>2098</v>
       </c>
       <c r="F26">
-        <v>3375</v>
+        <v>3219</v>
       </c>
       <c r="G26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B27">
-        <v>2292</v>
+        <v>2178</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D27">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E27">
-        <v>2292</v>
+        <v>2178</v>
       </c>
       <c r="F27">
-        <v>3524</v>
+        <v>3405</v>
       </c>
       <c r="G27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -1117,22 +1117,22 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>2311</v>
+        <v>2225</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E28">
-        <v>2311</v>
+        <v>2225</v>
       </c>
       <c r="F28">
-        <v>2574</v>
+        <v>2316</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1143,25 +1143,25 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B29">
-        <v>2528</v>
+        <v>2268</v>
       </c>
       <c r="C29">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>2528</v>
+        <v>2268</v>
       </c>
       <c r="F29">
-        <v>3557</v>
+        <v>4032</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -1169,51 +1169,51 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B30">
-        <v>2560</v>
+        <v>2321</v>
       </c>
       <c r="C30">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D30">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E30">
-        <v>2560</v>
+        <v>2321</v>
       </c>
       <c r="F30">
-        <v>2769</v>
+        <v>2441</v>
       </c>
       <c r="G30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>2641</v>
+        <v>2431</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E31">
-        <v>2641</v>
+        <v>2431</v>
       </c>
       <c r="F31">
-        <v>4415</v>
+        <v>2543</v>
       </c>
       <c r="G31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -1221,103 +1221,103 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>2680</v>
+        <v>2574</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D32">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E32">
-        <v>2680</v>
+        <v>2574</v>
       </c>
       <c r="F32">
-        <v>4175</v>
+        <v>2702</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>2699</v>
+        <v>2670</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D33">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E33">
-        <v>2699</v>
+        <v>2670</v>
       </c>
       <c r="F33">
-        <v>2867</v>
+        <v>4145</v>
       </c>
       <c r="G33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B34">
-        <v>2782</v>
+        <v>2691</v>
       </c>
       <c r="C34">
+        <v>35</v>
+      </c>
+      <c r="D34">
         <v>16</v>
       </c>
-      <c r="D34">
-        <v>22</v>
-      </c>
       <c r="E34">
-        <v>2782</v>
+        <v>2691</v>
       </c>
       <c r="F34">
-        <v>2938</v>
+        <v>4145</v>
       </c>
       <c r="G34" t="s">
         <v>9</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B35">
-        <v>2818</v>
+        <v>2714</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D35">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E35">
-        <v>2818</v>
+        <v>2714</v>
       </c>
       <c r="F35">
-        <v>3868</v>
+        <v>2865</v>
       </c>
       <c r="G35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -1325,129 +1325,129 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
+        <v>22</v>
+      </c>
+      <c r="B36">
+        <v>2748</v>
+      </c>
+      <c r="C36">
         <v>16</v>
       </c>
-      <c r="B36">
-        <v>2835</v>
-      </c>
-      <c r="C36">
-        <v>36</v>
-      </c>
       <c r="D36">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E36">
-        <v>2835</v>
+        <v>2748</v>
       </c>
       <c r="F36">
-        <v>4123</v>
+        <v>2825</v>
       </c>
       <c r="G36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B37">
-        <v>3068</v>
+        <v>2771</v>
       </c>
       <c r="C37">
         <v>20</v>
       </c>
       <c r="D37">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E37">
-        <v>3068</v>
+        <v>2771</v>
       </c>
       <c r="F37">
-        <v>4150</v>
+        <v>2884</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B38">
-        <v>3215</v>
+        <v>2892</v>
       </c>
       <c r="C38">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E38">
-        <v>3215</v>
+        <v>2892</v>
       </c>
       <c r="F38">
-        <v>4977</v>
+        <v>4291</v>
       </c>
       <c r="G38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B39">
-        <v>3371</v>
+        <v>3411</v>
       </c>
       <c r="C39">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E39">
-        <v>3371</v>
+        <v>3411</v>
       </c>
       <c r="F39">
-        <v>3644</v>
+        <v>4692</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B40">
-        <v>3498</v>
+        <v>3475</v>
       </c>
       <c r="C40">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D40">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E40">
-        <v>3498</v>
+        <v>3475</v>
       </c>
       <c r="F40">
-        <v>4904</v>
+        <v>5099</v>
       </c>
       <c r="G40" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -1455,25 +1455,25 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B41">
-        <v>3538</v>
+        <v>3531</v>
       </c>
       <c r="C41">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E41">
-        <v>3538</v>
+        <v>3531</v>
       </c>
       <c r="F41">
-        <v>4789</v>
+        <v>3641</v>
       </c>
       <c r="G41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H41">
         <v>1</v>
